--- a/services/backend/xlsx_files/yar.rom.rom@gmail.com's_vocabulary.xlsx
+++ b/services/backend/xlsx_files/yar.rom.rom@gmail.com's_vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,114 +441,114 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>treaty</t>
+          <t>external</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>договір</t>
+          <t>зовнішній</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>c2</t>
+          <t>b2</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>controversy</t>
+          <t>suspicious</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>суперечка</t>
+          <t>підозрілий</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>c1</t>
+          <t>b2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>dispute</t>
+          <t>hint</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>суперечка</t>
+          <t>підказка</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>c2</t>
+          <t>b2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>rebellion</t>
+          <t>parliament</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>заколот</t>
+          <t>парламент</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>c1</t>
+          <t>b2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>establishment</t>
+          <t>vision</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>створення</t>
+          <t>бачення</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>c1</t>
+          <t>b2</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>frail</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>бронза</t>
+          <t>кволий</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>c1</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>grand</t>
+          <t>necessity</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>грандіозний</t>
+          <t>необхідність</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -560,12 +560,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ally</t>
+          <t>misuse</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>союзник</t>
+          <t>неправильне використання</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -577,46 +577,46 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>weaken</t>
+          <t>spark</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>послабити</t>
+          <t>іскра</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>c1</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>random</t>
+          <t>lower</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>випадковий</t>
+          <t>опускатися</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>c1</t>
+          <t>b2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>army</t>
+          <t>intent</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>армія</t>
+          <t>намір</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -628,85 +628,4590 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>empire</t>
+          <t>surplus</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>імперія</t>
+          <t>надлишок</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>c1</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>resolution</t>
+          <t>truth</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>роздільна здатність</t>
+          <t>правда</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>c2</t>
+          <t>b2</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>merge</t>
+          <t>warmth</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>об'єднання</t>
+          <t>теплота</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>c2</t>
+          <t>b2</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>migration</t>
+          <t>inquire</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>міграція</t>
+          <t>дізнатись</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>c1</t>
+          <t>b2</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>constitute</t>
+          <t>expression</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>складати</t>
+          <t>вираз</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>gentleman</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>джентльмен</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>recollection</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>спогад</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>closely</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>уважно</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ridiculous</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>смішний</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>горіх</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>deal</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>угода</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>mankind</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>людство</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>quarrel</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>сварка</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>width</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ширина</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>grief</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>горе</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>untrue</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>неправдивий</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>c1</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>суд</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>resume</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>резюме</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>flame</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>полум'я</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>comprehensive</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>всебічний</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>mutter</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>бурмотіння</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>hail</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>град</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>venture</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>навчатись</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>literally</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>буквально</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>substitute</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>замінювати</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>sympathy</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>симпатія</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>occur</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>виникати</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>foul</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>недоброзичливий</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>endeavour</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>намагатися</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>outer</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>зовнішній</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>such</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>такий</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>mist</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>туман</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>chief</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>начальник</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>notwithstanding</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>незважаючи на</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>nor</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>не</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>gaze</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>подивитися</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>wish</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>бажання</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>embarrass</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>збентежити</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>overhear</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>підслухати</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>remarkable</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>чудовий</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>transparent</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>прозорий</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>rate</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>оцінювати</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>steel</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>сталь</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>astonishment</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>здивування</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>shiver</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>тремтіння</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>servant</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>слуга</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>consent</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>згода</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>fate</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>дота</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>bleak</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>похмурий</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>survive</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>виживати</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>backward</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>назад</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>regard</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>поважати</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>desirable</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>бажаний</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>middle</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>середній</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>distract</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>відволікати</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>relate</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>співвідносити</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>toll</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>плата</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>spirit</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>дух</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>stroll</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>гуляти</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>frown</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>нахмурений</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>crack</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>тріщина</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>haunt</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>переслідувати</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>descend</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>спускатися</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>funeral</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>похорон</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>illustrate</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ілюструє</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>slight</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>незначний</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>creation</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>створення</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>saint</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>святий</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>fellow</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>колега</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>genius</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>геній</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>присвоювати</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>stroke</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>інсульт</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>я</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>divert</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>відволікати</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>greatly</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>дуже</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>wisdom</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>мудрість</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>comfort</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>комфорт</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>feather</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>перо</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>supernatural</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>надприродний</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>scrap</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>брухт</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>confront</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>протистояти</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>examine</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>обстежувати</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>sole</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>єдиний</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>pace</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>темп</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>constantly</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>постійно</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>evil</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>зло</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>balance</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>балансувати</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>administrator</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>адміністратор</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>horror</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>жах</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>cheer</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>підбадьорювати</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>confuse</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>плутати</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>impression</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>враження</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>frost</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>мороз</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>scarcely</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>навряд чи</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>disturb</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>турбувати</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>surely</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>напевно</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>cheat</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>обдурити</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>undoubted</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>безсумнівний</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>restless</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>неспокійний</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>анонімний</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>fireplace</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>камін</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>curiosity</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>цікавість</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>reality</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>реальність</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>wretched</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>жалюгідний</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>фонд</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>mercy</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>милість</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>idle</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>безтурботний</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>nail</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>цвях</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>moan</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>стогнати</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>seek</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>шукати</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>faithful</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>вірний</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>pursue</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>переслідувати</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>seize</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>захоплювати</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>idiot</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>ідіот</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>observe</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>спостерігати</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>tail</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>хвіст</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>infant</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>немовля</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>burial</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>поховання</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>texture</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>текстура</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>interfere</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>заважати</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>syllable</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>склад</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>occupy</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>зайняти</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>humour</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>гумор</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>surface</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>поверхня</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>mustard</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>гірчиця</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>secure</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>забезпечити</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>withdraw</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>відступати</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>grasp</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>захоплювати</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>labour</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>праця</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>temper</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>вдача</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>leap</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>стрибок</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>vaguely</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>невиразно</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>darkness</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>темрява</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>conduct</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>проводити</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>latter</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>останній</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>disorder</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>розлад</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>witness</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>засвідчити</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>invisible</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>невидимий</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>glance</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>погляд</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>intense</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>інтенсивний</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>beyond</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>поза</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>gather</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>збирати</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>profit</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>прибуток</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>tread</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>ступати</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>wink</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>підморгування</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>terrify</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>налякати</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>solitude</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>самота</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>emotion</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>емоція</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>instantly</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>миттєво</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>glimpse</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>оглядати</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>overflow</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>переповнення</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>sacred</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>священний</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>thus</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>таким чином</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>berry</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>ягідно</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>staircase</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>сходи</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>pale</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>блідий</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>misery</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>нещастя</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>warehouse</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>склад</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>banker</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>банкір</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>fade</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>вицвітати</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>splendid</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>чудовий</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>freely</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>вільно</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>conscious</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>свідомий</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>satisfy</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>задовольнити</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>mumble</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>бурмотіння</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>plead</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>благати</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>jaw</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>щелепа</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>mansion</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>особняк</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>feature</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>означати</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>suffer</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>страждати</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>sale</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>розпродаж</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>origin</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>походження</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>assist</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>сприяти</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>mighty</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>могутній</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>amend</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>поправки</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>frighten</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>налякати</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>oblige</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>зобов’язати</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>suppose</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>припускати</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>grave</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>могила</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>waist</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>талії</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>corporation</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>корпорація</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>remorse</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>розкаювати</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>bind</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>зв'язувати</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>household</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>домашній</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>welfare</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>добробут</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>belong</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>належати</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>whom</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>хто</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>instance</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>екземпляр</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>pudding</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>пудинг</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>infancy</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>зародковий</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>flee</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>тікати</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>roar</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>рев</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>sensation</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>сенсація</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>provision</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>забезпечення</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>dismay</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>розчаровувати</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>torture</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>катування</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>stool</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>стілець</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>usefulness</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>корисність</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>dense</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>густий</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>inexplicable</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>незрозумілий</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>spur</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>шпора</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>bang</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>удар</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>doom</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>приреченість</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>cause</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>спричинити</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>upon</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>на</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>echo</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>відлуння</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>cell</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>клітина</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>squeeze</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>стиснути</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>phenomenon</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>феномен</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>appropriate</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>відповідний</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>dreadful</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>жахливий</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>minister</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>міністр</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>масштаб</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>master</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>майстер</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>condemn</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>засуджувати</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>wander</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>блукати</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>cease</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>припиняти</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>mere</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>просто</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>swallow</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>ковтати</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>tremble</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>тремтіти</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>terror</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>терор</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>convey</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>передавати</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>particular</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>особливий</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>tank</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>танк</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>swing</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>розгойдування</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>represent</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>представляти</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>обробка</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>expectation</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>очікування</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>linger</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>затримати</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>bow</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>поклонитися</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>influence</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>вплив</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>glow</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>сяйво</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>wise</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>мудрий</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>instant</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>мить</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>applaud</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>аплодувати</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>spite</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>злочин</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>ponder</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>обдумати</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>desire</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>бажання</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>cellar</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>підвалу</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>desperate</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>відчайдушний</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>weary</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>стомлений</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>god</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>бог</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>thoughtful</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>задумливий</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>residence</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>проживання</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>manner</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>манера</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>dread</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>боязкий</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>dip</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>занурювати</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>humility</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>смирення</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>honour</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>честь</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>chill</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>охолоджувати</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>lane</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>провулок</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>mayor</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>міський голова</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>clutch</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>зчеплення</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>ward</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>підопічний</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>solitary</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>одиночний</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>rapid</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>швидкий</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>threshold</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>поріг</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>undergo</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>зазнати</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>justify</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>виправдати</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>affect</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>впливати</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>nuisance</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>неприємність</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>evidence</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>доказ</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>bargain</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>торгуватися</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>vast</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>величезний</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>boast</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>похвалити</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>coal</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>вугілля</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>wipe</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>витирати</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>immortal</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>безсмертний</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>sphere</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>сфера</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>extract</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>витяг</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>b2</t>
         </is>
       </c>
     </row>
